--- a/PH_pr1/Medidas PH-1.xlsx
+++ b/PH_pr1/Medidas PH-1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pjper\OneDrive\Documentos\GitHub\Proyecto-Hardware\PH_pr1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAFC45CD-A572-F44C-BE19-B0757734D5B0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72E59A00-24E0-4D32-9545-131FB4430885}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="440" windowWidth="25440" windowHeight="15020" xr2:uid="{1891A1D0-871D-C447-A723-7B690CB5E899}"/>
+    <workbookView xWindow="4635" yWindow="1215" windowWidth="21600" windowHeight="11385" xr2:uid="{1891A1D0-871D-C447-A723-7B690CB5E899}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="15">
   <si>
     <t>C - C</t>
   </si>
@@ -74,13 +74,24 @@
   <si>
     <t>O0</t>
   </si>
+  <si>
+    <t>El paso 6 en ARM_ARM Se midió 2 veces y en los dos casos salió 42</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -108,12 +119,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -431,15 +447,15 @@
   <dimension ref="B2:P64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+      <selection activeCell="J36" sqref="I34:J36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="10.83203125" customWidth="1"/>
+    <col min="7" max="7" width="10.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>9</v>
       </c>
@@ -450,7 +466,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>0</v>
       </c>
@@ -482,7 +498,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>1</v>
       </c>
@@ -523,7 +539,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>2</v>
       </c>
@@ -564,7 +580,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>3</v>
       </c>
@@ -605,7 +621,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>4</v>
       </c>
@@ -646,7 +662,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>5</v>
       </c>
@@ -687,7 +703,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>6</v>
       </c>
@@ -728,7 +744,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>7</v>
       </c>
@@ -769,7 +785,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>8</v>
       </c>
@@ -810,17 +826,17 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
       <c r="G14" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C16" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>0</v>
       </c>
@@ -837,7 +853,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>1</v>
       </c>
@@ -854,7 +870,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>2</v>
       </c>
@@ -883,7 +899,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>3</v>
       </c>
@@ -903,7 +919,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>4</v>
       </c>
@@ -923,7 +939,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>5</v>
       </c>
@@ -943,7 +959,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>6</v>
       </c>
@@ -963,7 +979,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>7</v>
       </c>
@@ -983,7 +999,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>8</v>
       </c>
@@ -1000,12 +1016,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>0</v>
       </c>
@@ -1015,53 +1031,161 @@
       <c r="E29" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="F29" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C30">
+        <v>13</v>
+      </c>
+      <c r="D30">
+        <v>15</v>
+      </c>
+      <c r="E30">
+        <v>13</v>
+      </c>
+      <c r="F30">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>2</v>
       </c>
-    </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C31">
+        <v>12</v>
+      </c>
+      <c r="D31">
+        <v>20</v>
+      </c>
+      <c r="E31">
+        <v>13</v>
+      </c>
+      <c r="F31">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C32">
+        <v>12</v>
+      </c>
+      <c r="D32">
+        <v>36</v>
+      </c>
+      <c r="E32">
+        <v>13</v>
+      </c>
+      <c r="F32">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>4</v>
       </c>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C33">
+        <v>12</v>
+      </c>
+      <c r="D33">
+        <v>36</v>
+      </c>
+      <c r="E33">
+        <v>13</v>
+      </c>
+      <c r="F33">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B34">
         <v>5</v>
       </c>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C34">
+        <v>16</v>
+      </c>
+      <c r="D34">
+        <v>42</v>
+      </c>
+      <c r="E34">
+        <v>17</v>
+      </c>
+      <c r="F34">
+        <v>15</v>
+      </c>
+      <c r="H34" t="s">
+        <v>14</v>
+      </c>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B35">
         <v>6</v>
       </c>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C35">
+        <v>12</v>
+      </c>
+      <c r="D35">
+        <v>14</v>
+      </c>
+      <c r="E35">
+        <v>13</v>
+      </c>
+      <c r="F35">
+        <v>12</v>
+      </c>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B36">
         <v>7</v>
       </c>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C36">
+        <v>12</v>
+      </c>
+      <c r="D36">
+        <v>14</v>
+      </c>
+      <c r="E36">
+        <v>13</v>
+      </c>
+      <c r="F36">
+        <v>12</v>
+      </c>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B37">
         <v>8</v>
       </c>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C37">
+        <v>12</v>
+      </c>
+      <c r="D37">
+        <v>14</v>
+      </c>
+      <c r="E37">
+        <v>13</v>
+      </c>
+      <c r="F37">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>0</v>
       </c>
@@ -1071,53 +1195,152 @@
       <c r="E42" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F42" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B43">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C43">
+        <v>6</v>
+      </c>
+      <c r="D43">
+        <v>13</v>
+      </c>
+      <c r="E43">
+        <v>12</v>
+      </c>
+      <c r="F43">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B44">
         <v>2</v>
       </c>
-    </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C44">
+        <v>6</v>
+      </c>
+      <c r="D44">
+        <v>18</v>
+      </c>
+      <c r="E44">
+        <v>12</v>
+      </c>
+      <c r="F44">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B45">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C45">
+        <v>6</v>
+      </c>
+      <c r="D45">
+        <v>33</v>
+      </c>
+      <c r="E45">
+        <v>12</v>
+      </c>
+      <c r="F45">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B46">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C46">
+        <v>6</v>
+      </c>
+      <c r="D46">
+        <v>33</v>
+      </c>
+      <c r="E46">
+        <v>12</v>
+      </c>
+      <c r="F46">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B47">
         <v>5</v>
       </c>
-    </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C47">
+        <v>8</v>
+      </c>
+      <c r="D47">
+        <v>38</v>
+      </c>
+      <c r="E47">
+        <v>15</v>
+      </c>
+      <c r="F47">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B48">
         <v>6</v>
       </c>
-    </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C48">
+        <v>6</v>
+      </c>
+      <c r="D48">
+        <v>13</v>
+      </c>
+      <c r="E48">
+        <v>11</v>
+      </c>
+      <c r="F48">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B49">
         <v>7</v>
       </c>
-    </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C49">
+        <v>6</v>
+      </c>
+      <c r="D49">
+        <v>13</v>
+      </c>
+      <c r="E49">
+        <v>12</v>
+      </c>
+      <c r="F49">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B50">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C50">
+        <v>6</v>
+      </c>
+      <c r="D50">
+        <v>13</v>
+      </c>
+      <c r="E50">
+        <v>12</v>
+      </c>
+      <c r="F50">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>0</v>
       </c>
@@ -1127,48 +1350,149 @@
       <c r="E56" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F56" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B57">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C57">
+        <v>14</v>
+      </c>
+      <c r="D57">
+        <v>13</v>
+      </c>
+      <c r="E57">
+        <v>12</v>
+      </c>
+      <c r="F57">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B58">
         <v>2</v>
       </c>
-    </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C58">
+        <v>14</v>
+      </c>
+      <c r="D58">
+        <v>18</v>
+      </c>
+      <c r="E58">
+        <v>12</v>
+      </c>
+      <c r="F58">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B59">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C59">
+        <v>14</v>
+      </c>
+      <c r="D59">
+        <v>32</v>
+      </c>
+      <c r="E59">
+        <v>12</v>
+      </c>
+      <c r="F59">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B60">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C60">
+        <v>14</v>
+      </c>
+      <c r="D60">
+        <v>31</v>
+      </c>
+      <c r="E60">
+        <v>12</v>
+      </c>
+      <c r="F60">
+        <v>11</v>
+      </c>
+      <c r="H60" s="4"/>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B61">
         <v>5</v>
       </c>
-    </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C61">
+        <v>20</v>
+      </c>
+      <c r="D61">
+        <v>36</v>
+      </c>
+      <c r="E61">
+        <v>15</v>
+      </c>
+      <c r="F61">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B62">
         <v>6</v>
       </c>
-    </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C62">
+        <v>14</v>
+      </c>
+      <c r="D62">
+        <v>13</v>
+      </c>
+      <c r="E62">
+        <v>11</v>
+      </c>
+      <c r="F62">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B63">
         <v>7</v>
       </c>
-    </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C63">
+        <v>14</v>
+      </c>
+      <c r="D63">
+        <v>13</v>
+      </c>
+      <c r="E63">
+        <v>12</v>
+      </c>
+      <c r="F63">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B64">
         <v>8</v>
       </c>
+      <c r="C64">
+        <v>14</v>
+      </c>
+      <c r="D64">
+        <v>13</v>
+      </c>
+      <c r="E64">
+        <v>12</v>
+      </c>
+      <c r="F64">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/PH_pr1/Medidas PH-1.xlsx
+++ b/PH_pr1/Medidas PH-1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pjper\OneDrive\Documentos\GitHub\Proyecto-Hardware\PH_pr1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Proyecto-Hardware/PH_pr1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72E59A00-24E0-4D32-9545-131FB4430885}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8555D803-1A1D-6047-BF0E-978E0BA05DF7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4635" yWindow="1215" windowWidth="21600" windowHeight="11385" xr2:uid="{1891A1D0-871D-C447-A723-7B690CB5E899}"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="15480" xr2:uid="{1891A1D0-871D-C447-A723-7B690CB5E899}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -145,6 +145,5570 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES_tradnl"/>
+              <a:t>-O0</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C - C</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$C$4:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>28</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4F7C-B645-8F70-16A4667FDAC1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$D$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ARM - C</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$D$4:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4F7C-B645-8F70-16A4667FDAC1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$E$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ARM - ARM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$E$4:$E$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-4F7C-B645-8F70-16A4667FDAC1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$F$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>OPT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$F$4:$F$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-4F7C-B645-8F70-16A4667FDAC1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="1970082608"/>
+        <c:axId val="1969548608"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1970082608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1969548608"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1969548608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1970082608"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES_tradnl"/>
+              <a:t>-O1</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$C$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C - C</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$C$18:$C$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7E4C-124D-A056-490106DDD674}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$D$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ARM - C</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$D$18:$D$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7E4C-124D-A056-490106DDD674}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$E$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ARM - ARM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$E$18:$E$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7E4C-124D-A056-490106DDD674}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$F$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>OPT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$F$18:$F$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-7E4C-124D-A056-490106DDD674}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="1968926768"/>
+        <c:axId val="2014393248"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1968926768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2014393248"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2014393248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="140"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1968926768"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES_tradnl"/>
+              <a:t>-O2</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$C$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C - C</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$C$30:$C$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3778-604F-95C6-830B72E94BAA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$D$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ARM - C</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$D$30:$D$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3778-604F-95C6-830B72E94BAA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$E$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ARM - ARM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$E$30:$E$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3778-604F-95C6-830B72E94BAA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$F$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>OPT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$F$30:$F$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-3778-604F-95C6-830B72E94BAA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="1970146064"/>
+        <c:axId val="1970919456"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1970146064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1970919456"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1970919456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="140"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1970146064"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES_tradnl"/>
+              <a:t>-O3</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$C$42</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C - C</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$C$43:$C$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8981-694B-A42C-DEDF9F933616}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$D$42</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ARM - C</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$D$43:$D$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8981-694B-A42C-DEDF9F933616}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$E$42</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ARM - ARM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$E$43:$E$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8981-694B-A42C-DEDF9F933616}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$F$42</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>OPT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$F$43:$F$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-8981-694B-A42C-DEDF9F933616}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="2014224096"/>
+        <c:axId val="2013587632"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2014224096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2013587632"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2013587632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="140"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2014224096"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES_tradnl"/>
+              <a:t>-Os</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$C$56</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C - C</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$C$57:$C$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5E20-4244-A56E-9AD665C0D29C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$D$56</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ARM - C</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$D$57:$D$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5E20-4244-A56E-9AD665C0D29C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$E$56</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ARM - ARM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$E$57:$E$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5E20-4244-A56E-9AD665C0D29C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$F$56</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>OPT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$F$57:$F$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-5E20-4244-A56E-9AD665C0D29C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="2015680976"/>
+        <c:axId val="1970032832"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2015680976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1970032832"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1970032832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="140"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2015680976"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>730250</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>349250</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CBA6DD7-98DF-114F-8223-0ADA0076114B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6215BA93-E28A-464E-9DA7-B9C1B63E6969}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>260350</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>704850</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Gráfico 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76089CE1-3B22-1B42-9881-58E1DE30A970}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Gráfico 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90B728B4-91E5-924E-B5C2-7E6E6EF010BA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Gráfico 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CCBDB63-AF44-7040-847F-88FEE9D1AEAE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -447,15 +6011,15 @@
   <dimension ref="B2:P64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J36" sqref="I34:J36"/>
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="7" max="7" width="10.875" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C2" t="s">
         <v>9</v>
       </c>
@@ -466,7 +6030,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
         <v>0</v>
       </c>
@@ -498,7 +6062,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B4">
         <v>1</v>
       </c>
@@ -539,7 +6103,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>2</v>
       </c>
@@ -580,7 +6144,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>3</v>
       </c>
@@ -621,7 +6185,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>4</v>
       </c>
@@ -662,7 +6226,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B8">
         <v>5</v>
       </c>
@@ -703,7 +6267,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B9">
         <v>6</v>
       </c>
@@ -744,7 +6308,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B10">
         <v>7</v>
       </c>
@@ -785,7 +6349,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B11">
         <v>8</v>
       </c>
@@ -826,17 +6390,17 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.2">
       <c r="G14" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C16" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C17" t="s">
         <v>0</v>
       </c>
@@ -853,7 +6417,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B18">
         <v>1</v>
       </c>
@@ -870,7 +6434,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B19">
         <v>2</v>
       </c>
@@ -899,7 +6463,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B20">
         <v>3</v>
       </c>
@@ -919,7 +6483,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B21">
         <v>4</v>
       </c>
@@ -939,7 +6503,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B22">
         <v>5</v>
       </c>
@@ -959,7 +6523,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B23">
         <v>6</v>
       </c>
@@ -979,7 +6543,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B24">
         <v>7</v>
       </c>
@@ -999,7 +6563,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B25">
         <v>8</v>
       </c>
@@ -1016,12 +6580,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C28" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C29" t="s">
         <v>0</v>
       </c>
@@ -1035,7 +6599,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B30">
         <v>1</v>
       </c>
@@ -1052,7 +6616,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B31">
         <v>2</v>
       </c>
@@ -1069,7 +6633,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B32">
         <v>3</v>
       </c>
@@ -1086,7 +6650,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B33">
         <v>4</v>
       </c>
@@ -1103,7 +6667,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B34">
         <v>5</v>
       </c>
@@ -1125,7 +6689,7 @@
       <c r="I34" s="5"/>
       <c r="J34" s="5"/>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B35">
         <v>6</v>
       </c>
@@ -1144,7 +6708,7 @@
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B36">
         <v>7</v>
       </c>
@@ -1163,7 +6727,7 @@
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B37">
         <v>8</v>
       </c>
@@ -1180,12 +6744,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C41" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C42" t="s">
         <v>0</v>
       </c>
@@ -1199,7 +6763,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B43">
         <v>1</v>
       </c>
@@ -1216,7 +6780,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B44">
         <v>2</v>
       </c>
@@ -1233,7 +6797,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B45">
         <v>3</v>
       </c>
@@ -1250,7 +6814,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B46">
         <v>4</v>
       </c>
@@ -1267,7 +6831,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B47">
         <v>5</v>
       </c>
@@ -1284,7 +6848,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B48">
         <v>6</v>
       </c>
@@ -1301,7 +6865,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B49">
         <v>7</v>
       </c>
@@ -1318,7 +6882,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B50">
         <v>8</v>
       </c>
@@ -1335,12 +6899,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C55" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C56" t="s">
         <v>0</v>
       </c>
@@ -1354,7 +6918,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B57">
         <v>1</v>
       </c>
@@ -1371,7 +6935,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B58">
         <v>2</v>
       </c>
@@ -1388,7 +6952,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B59">
         <v>3</v>
       </c>
@@ -1405,7 +6969,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B60">
         <v>4</v>
       </c>
@@ -1423,7 +6987,7 @@
       </c>
       <c r="H60" s="4"/>
     </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B61">
         <v>5</v>
       </c>
@@ -1440,7 +7004,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B62">
         <v>6</v>
       </c>
@@ -1457,7 +7021,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B63">
         <v>7</v>
       </c>
@@ -1474,7 +7038,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B64">
         <v>8</v>
       </c>
@@ -1494,5 +7058,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>